--- a/results/DT/375Hz_2classes_normalized/res_hyperopt.xlsx
+++ b/results/DT/375Hz_2classes_normalized/res_hyperopt.xlsx
@@ -473,16 +473,16 @@
         <v>0.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'max_depth': 92, 'max_features': 0.23110527204830372, 'min_samples_leaf': 0.010364523326566615, 'min_samples_split': 0.030994726849792154}</t>
+          <t>{'max_depth': 36, 'max_features': 0.07867990230922824, 'min_samples_leaf': 0.010596847170115971, 'min_samples_split': 0.027002456872101788}</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.138, 'mean_10_25': 0.172, 'percScore_10_25': 0.01, 'min_10_25': 0.006, 'coef_var_25_75': 0.056, 'max_50_100': 0.028, 'entropy_50_100': 0.037, 'max_75_125': 0.155, 'coef_var_75_125': 0.097, 'mad_100_150': 0.005, 'max_125_175': 0.075, 'max_250_300': 0.041, 'min_250_300': 0.087, 'var_250_300': 0.022, 'max_275_325': 0.07}</t>
+          <t>{'mean_10_25': 0.176, 'coef_var_10_25': 0.107, 'min_10_25': 0.016, 'kurt_10_50': 0.062, 'std_class_10_50': 0.034, 'coef_var_25_75': 0.054, 'kurt_50_100': 0.079, 'skew_75_125': 0.003, 'coef_kstatvar_75_125': 0.051, 'std_class_100_150': 0.034, 'coef_var_125_175': 0.041, 'var_150_200': 0.003, 'std_class_175_225': 0.185, 'skew_200_250': 0.02, 'score_at_perc_200_250': 0.004, 'mad_225_275': 0.002, 'score_at_perc_225_275': 0.002, 'min_225_275': 0.016, 'max_275_325': 0.091, 'max_325_375': 0.021}</t>
         </is>
       </c>
     </row>
@@ -496,19 +496,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.78</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'max_depth': 86, 'max_features': 0.3352457986832169, 'min_samples_leaf': 0.027497836917524353, 'min_samples_split': 0.03503144579615892}</t>
+          <t>{'max_depth': 69, 'max_features': 0.1480942214633605, 'min_samples_leaf': 0.0011332529823576388, 'min_samples_split': 0.0012006339034763497}</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.105, 'mean_10_25': 0.096, 'percScore_10_25': 0.001, 'kurt_10_50': 0.077, 'std_class_10_50': 0.073, 'var_25_75': 0.04, 'mad_50_100': 0.122, 'kurt_75_125': 0.262, 'score_at_perc_150_200': 0.049, 'std_class_150_200': 0.06, 'entropy_225_275': 0.002, 'max_275_325': 0.113}</t>
+          <t>{'mean_10_25': 0.025, 'min_10_25': 0.039, 'std_class_10_25': 0.045, 'var_10_25': 0.031, 'max_10_50': 0.005, 'min_10_50': 0.086, 'var_10_50': 0.102, 'kurt_25_75': 0.014, 'coef_kstatvar_25_75': 0.021, 'min_25_75': 0.011, 'max_50_100': 0.024, 'kurt_50_100': 0.191, 'var_50_100': 0.019, 'max_75_125': 0.033, 'score_at_perc_75_125': 0.012, 'var_75_125': 0.013, 'kurt_100_150': 0.015, 'kurt_125_175': 0.028, 'score_at_perc_125_175': 0.007, 'max_150_200': 0.125, 'score_at_perc_150_200': 0.014, 'min_200_250': 0.026, 'mean_250_300': 0.015, 'max_250_300': 0.022, 'max_275_325': 0.013, 'skew_275_325': 0.024, 'skew_325_375': 0.022, 'score_at_perc_325_375': 0.018}</t>
         </is>
       </c>
     </row>
@@ -522,19 +522,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'max_depth': 25, 'max_features': 0.5901360295493017, 'min_samples_leaf': 0.0010031272905756138, 'min_samples_split': 0.019373172650924593}</t>
+          <t>{'max_depth': 38, 'max_features': 0.7013738848327002, 'min_samples_leaf': 0.0017745818496295342, 'min_samples_split': 0.0016151977703397769}</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.015, 'mean_10_25': 0.07, 'score_at_perc_10_25': 0.007, 'std_class_10_50': 0.032, 'var_10_50': 0.232, 'mean_50_100': 0.015, 'max_50_100': 0.138, 'max_75_125': 0.052, 'var_100_150': 0.015, 'score_at_perc_125_175': 0.015, 'kurt_175_225': 0.175, 'mad_175_225': 0.015, 'kurt_250_300': 0.04, 'std_class_250_300': 0.046, 'skew_275_325': 0.052, 'coef_var_275_325': 0.067, 'skew_300_350': 0.014}</t>
+          <t>{'var_325_375': 0.036, 'mean_10_25': 0.031, 'score_at_perc_10_25': 0.035, 'coef_var_10_25': 0.011, 'percScore_10_50': 0.014, 'score_at_perc_10_50': 0.005, 'var_10_50': 0.228, 'coef_var_25_75': 0.014, 'max_75_125': 0.248, 'kurt_100_150': 0.047, 'max_125_175': 0.038, 'max_150_200': 0.011, 'score_at_perc_150_200': 0.011, 'skew_175_225': 0.026, 'kurt_225_275': 0.017, 'min_250_300': 0.106, 'var_250_300': 0.023, 'max_275_325': 0.049, 'max_325_375': 0.036, 'min_325_375': 0.015}</t>
         </is>
       </c>
     </row>
@@ -551,16 +551,16 @@
         <v>0.91</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'max_depth': 62, 'max_features': 0.6013413435999231, 'min_samples_leaf': 0.02142765985905247, 'min_samples_split': 0.06670890972095132}</t>
+          <t>{'max_depth': 15, 'max_features': 0.6673380594954541, 'min_samples_leaf': 0.02751902358416262, 'min_samples_split': 0.03644857979043673}</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'percScore_10_25': 0.04, 'var_10_25': 0.075, 'min_10_50': 0.058, 'max_75_125': 0.059, 'var_100_150': 0.009, 'kurt_175_225': 0.395, 'coef_kstatvar_200_250': 0.07, 'kurt_250_300': 0.019, 'coef_var_250_300': 0.166, 'kurt_275_325': 0.108}</t>
+          <t>{'std_class_10_25': 0.025, 'coef_kstatvar_10_50': 0.002, 'max_50_100': 0.051, 'kurt_50_100': 0.188, 'max_150_200': 0.01, 'mean_175_225': 0.013, 'max_175_225': 0.263, 'skew_175_225': 0.083, 'mean_200_250': 0.066, 'kurt_250_300': 0.09, 'entropy_250_300': 0.008, 'coef_var_250_300': 0.108, 'max_275_325': 0.094}</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'max_depth': 81, 'max_features': 0.503008129947319, 'min_samples_leaf': 0.010480332995299184, 'min_samples_split': 0.018036163461118995}</t>
+          <t>{'max_depth': 26, 'max_features': 0.7370175543595875, 'min_samples_leaf': 0.010981562431098643, 'min_samples_split': 0.013499067628757577}</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.206, 'std_class_10_25': 0.095, 'score_at_perc_10_50': 0.021, 'min_10_50': 0.079, 'std_class_25_75': 0.198, 'max_50_100': 0.054, 'std_class_50_100': 0.004, 'max_75_125': 0.063, 'kurt_75_125': 0.15, 'kurt_250_300': 0.128, 'max_275_325': 0.003}</t>
+          <t>{'mean_10_25': 0.206, 'min_10_25': 0.039, 'std_class_10_25': 0.056, 'score_at_perc_10_50': 0.021, 'min_10_50': 0.079, 'min_25_75': 0.198, 'kurt_50_100': 0.204, 'max_75_125': 0.063, 'max_175_225': 0.004, 'kurt_250_300': 0.131}</t>
         </is>
       </c>
     </row>
@@ -603,16 +603,16 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'max_depth': 28, 'max_features': 0.7875623781836036, 'min_samples_leaf': 0.0011342114811047077, 'min_samples_split': 0.0019804161292474413}</t>
+          <t>{'max_depth': 45, 'max_features': 0.6439701677247445, 'min_samples_leaf': 0.003002246012114182, 'min_samples_split': 0.013933036095905519}</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.179, 'score_at_perc_10_25': 0.013, 'min_10_25': 0.032, 'coef_var_10_50': 0.057, 'var_10_50': 0.085, 'coef_var_25_75': 0.036, 'max_50_100': 0.141, 'min_50_100': 0.028, 'kurt_75_125': 0.21, 'max_100_150': 0.057, 'min_175_225': 0.043, 'kurt_200_250': 0.016, 'kurt_225_275': 0.012, 'var_225_275': 0.063, 'score_at_perc_275_325': 0.03}</t>
+          <t>{'mean_10_25': 0.221, 'coef_var_10_25': 0.039, 'mean_25_75': 0.088, 'skew_25_75': 0.04, 'max_50_100': 0.132, 'kurt_75_125': 0.143, 'max_125_175': 0.032, 'max_175_225': 0.057, 'kurt_175_225': 0.067, 'std_class_175_225': 0.061, 'min_250_300': 0.048, 'var_250_300': 0.014, 'max_275_325': 0.029, 'std_class_300_350': 0.014, 'skew_325_375': 0.015}</t>
         </is>
       </c>
     </row>
@@ -626,19 +626,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.91</v>
+        <v>0.73</v>
       </c>
       <c r="D8" t="n">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'max_depth': 10, 'max_features': 0.7630919363632847, 'min_samples_leaf': 0.0010614288337252766, 'min_samples_split': 0.17440944733288025}</t>
+          <t>{'max_depth': 23, 'max_features': 0.5871112120424895, 'min_samples_leaf': 0.2567093469261473, 'min_samples_split': 0.17407384912057455}</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.125, 'mean_10_25': 0.224, 'skew_10_25': 0.015, 'std_class_10_50': 0.015, 'mean_25_75': 0.004, 'kurt_75_125': 0.179, 'coef_var_125_175': 0.056, 'max_150_200': 0.02, 'max_250_300': 0.219, 'std_class_275_325': 0.094, 'kurt_325_375': 0.04, 'coef_var_325_375': 0.008}</t>
+          <t>{'max_50_100': 0.508, 'kurt_175_225': 0.492}</t>
         </is>
       </c>
     </row>
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="D9" t="n">
         <v>0.88</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'max_depth': 74, 'max_features': 0.27903128864275895, 'min_samples_leaf': 0.015271773427303726, 'min_samples_split': 0.03524106179264283}</t>
+          <t>{'max_depth': 18, 'max_features': 0.28037125864056534, 'min_samples_leaf': 0.0017241309319702973, 'min_samples_split': 0.06393271473325743}</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.2, 'score_at_perc_10_25': 0.013, 'mean_10_50': 0.098, 'score_at_perc_10_50': 0.075, 'max_50_100': 0.046, 'max_75_125': 0.139, 'var_150_200': 0.039, 'std_class_175_225': 0.132, 'max_200_250': 0.02, 'skew_200_250': 0.001, 'min_225_275': 0.008, 'kurt_275_325': 0.171, 'skew_275_325': 0.022, 'kurt_300_350': 0.007, 'mean_325_375': 0.028}</t>
+          <t>{'var_325_375': 0.098, 'mean_10_25': 0.141, 'kurt_10_25': 0.038, 'kurt_10_50': 0.018, 'std_class_10_50': 0.102, 'max_50_100': 0.048, 'max_75_125': 0.145, 'min_150_200': 0.013, 'mean_175_225': 0.013, 'std_class_175_225': 0.083, 'var_175_225': 0.017, 'coef_var_250_300': 0.056, 'kurt_275_325': 0.178, 'skew_275_325': 0.022, 'mean_325_375': 0.029}</t>
         </is>
       </c>
     </row>
@@ -678,19 +678,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.86</v>
+        <v>0.96</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'max_depth': 32, 'max_features': 0.11522572808572733, 'min_samples_leaf': 0.010816200644641737, 'min_samples_split': 0.3025565350501193}</t>
+          <t>{'max_depth': 79, 'max_features': 0.43561981687274237, 'min_samples_leaf': 0.0018228839281152211, 'min_samples_split': 0.08028330319105942}</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.112, 'mean_10_25': 0.217, 'mean_10_50': 0.138, 'min_25_75': 0.031, 'kurt_75_125': 0.213, 'coef_var_250_300': 0.132, 'max_275_325': 0.158}</t>
+          <t>{'mean_10_25': 0.139, 'skew_10_25': 0.012, 'var_10_25': 0.083, 'coef_var_10_50': 0.097, 'max_50_100': 0.142, 'var_50_100': 0.083, 'coef_var_75_125': 0.023, 'kurt_175_225': 0.115, 'coef_var_175_225': 0.11, 'skew_225_275': 0.04, 'coef_var_250_300': 0.065, 'var_250_300': 0.038, 'kurt_275_325': 0.027, 'std_class_275_325': 0.014, 'mean_300_350': 0.013}</t>
         </is>
       </c>
     </row>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="D11" t="n">
         <v>0.92</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'max_depth': 48, 'max_features': 0.6930835500490576, 'min_samples_leaf': 0.00992694579517732, 'min_samples_split': 0.027140327103169517}</t>
+          <t>{'max_depth': 85, 'max_features': 0.6170017454694883, 'min_samples_leaf': 0.05539276129840839, 'min_samples_split': 0.12970312758102795}</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{'mean_10_25': 0.055, 'std_class_10_25': 0.052, 'mean_10_50': 0.069, 'min_10_50': 0.094, 'percScore_25_75': 0.088, 'var_25_75': 0.105, 'kurt_50_100': 0.225, 'coef_var_100_150': 0.003, 'kurt_125_175': 0.039, 'coef_var_150_200': 0.003, 'min_150_200': 0.012, 'std_class_175_225': 0.067, 'max_200_250': 0.017, 'max_250_300': 0.114, 'skew_250_300': 0.015, 'max_275_325': 0.022, 'mean_300_350': 0.02}</t>
+          <t>{'min_10_50': 0.132, 'var_10_50': 0.071, 'score_at_perc_25_75': 0.083, 'kurt_50_100': 0.332, 'var_50_100': 0.155, 'kurt_125_175': 0.049, 'min_175_225': 0.009, 'max_250_300': 0.168}</t>
         </is>
       </c>
     </row>
@@ -730,19 +730,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="D12" t="n">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'max_depth': 12, 'max_features': 0.38008914507829344, 'min_samples_leaf': 0.0013970118064698285, 'min_samples_split': 0.0010540047821340909}</t>
+          <t>{'max_depth': 10, 'max_features': 0.3597975857623697, 'min_samples_leaf': 0.009812894836563814, 'min_samples_split': 0.0011404759302439497}</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.077, 'mean_10_25': 0.189, 'percScore_10_25': 0.04, 'mean_10_50': 0.011, 'score_at_perc_10_50': 0.008, 'min_10_50': 0.009, 'score_at_perc_25_75': 0.015, 'skew_50_100': 0.004, 'kurt_75_125': 0.165, 'min_100_150': 0.022, 'entropy_125_175': 0.018, 'kurt_150_200': 0.011, 'score_at_perc_150_200': 0.009, 'max_175_225': 0.011, 'kurt_175_225': 0.011, 'skew_175_225': 0.019, 'std_class_175_225': 0.04, 'score_at_perc_200_250': 0.036, 'kurt_250_300': 0.169, 'entropy_250_300': 0.011, 'var_250_300': 0.06, 'max_275_325': 0.015, 'kurt_275_325': 0.031, 'var_275_325': 0.008, 'mad_300_350': 0.011}</t>
+          <t>{'var_325_375': 0.11, 'mean_10_25': 0.218, 'max_10_50': 0.059, 'percScore_25_75': 0.021, 'max_50_100': 0.01, 'kurt_50_100': 0.169, 'skew_50_100': 0.022, 'mean_150_200': 0.002, 'kurt_150_200': 0.019, 'max_175_225': 0.025, 'coef_var_175_225': 0.037, 'var_225_275': 0.109, 'kurt_250_300': 0.154, 'score_at_perc_250_300': 0.007, 'coef_kstatvar_250_300': 0.003, 'min_250_300': 0.02, 'var_250_300': 0.003, 'max_300_350': 0.012}</t>
         </is>
       </c>
     </row>
@@ -756,19 +756,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'max_depth': 87, 'max_features': 0.3983682164365927, 'min_samples_leaf': 0.010746587683650374, 'min_samples_split': 0.015597782663431486}</t>
+          <t>{'max_depth': 92, 'max_features': 0.3018353195547331, 'min_samples_leaf': 0.0015204283308986443, 'min_samples_split': 0.057275358080087935}</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.134, 'mean_10_25': 0.163, 'kurt_10_50': 0.026, 'coef_var_10_50': 0.077, 'mean_50_100': 0.041, 'max_75_125': 0.196, 'skew_175_225': 0.013, 'coef_var_175_225': 0.145, 'var_175_225': 0.034, 'mad_200_250': 0.029, 'kurt_275_325': 0.083, 'coef_var_275_325': 0.06}</t>
+          <t>{'var_325_375': 0.048, 'mean_10_25': 0.281, 'min_10_25': 0.08, 'min_25_75': 0.013, 'score_at_perc_50_100': 0.016, 'kurt_75_125': 0.197, 'percScore_75_125': 0.017, 'kurt_100_150': 0.003, 'max_150_200': 0.018, 'skew_225_275': 0.044, 'max_250_300': 0.147, 'kurt_250_300': 0.05, 'var_250_300': 0.084, 'kurt_325_375': 0.002}</t>
         </is>
       </c>
     </row>
@@ -782,19 +782,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.93</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'max_depth': 78, 'max_features': 0.6872110650917996, 'min_samples_leaf': 0.0015070475787394289, 'min_samples_split': 0.011729746970535616}</t>
+          <t>{'max_depth': 19, 'max_features': 0.6015425385482347, 'min_samples_leaf': 0.002436489678608088, 'min_samples_split': 0.001473704554039236}</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>{'var_325_375': 0.054, 'mean_10_25': 0.048, 'coef_var_10_25': 0.043, 'coef_kstatvar_10_25': 0.027, 'min_10_25': 0.032, 'std_class_25_75': 0.087, 'max_50_100': 0.011, 'kurt_50_100': 0.168, 'std_class_50_100': 0.01, 'var_50_100': 0.01, 'max_75_125': 0.041, 'kurt_75_125': 0.027, 'coef_kstatvar_75_125': 0.01, 'min_100_150': 0.016, 'coef_kstatvar_150_200': 0.012, 'max_175_225': 0.145, 'skew_200_250': 0.016, 'coef_kstatvar_225_275': 0.011, 'mean_250_300': 0.014, 'kurt_250_300': 0.059, 'skew_250_300': 0.025, 'entropy_250_300': 0.01, 'skew_275_325': 0.04, 'score_at_perc_275_325': 0.015, 'min_275_325': 0.034, 'skew_300_350': 0.011, 'var_300_350': 0.021, 'min_325_375': 0.003}</t>
+          <t>{'var_325_375': 0.071, 'mean_10_25': 0.085, 'entropy_10_25': 0.021, 'coef_var_10_25': 0.04, 'std_class_10_25': 0.011, 'var_10_25': 0.053, 'min_25_75': 0.071, 'std_class_25_75': 0.003, 'max_50_100': 0.032, 'score_at_perc_50_100': 0.052, 'kurt_75_125': 0.011, 'percScore_75_125': 0.018, 'entropy_75_125': 0.013, 'coef_var_100_150': 0.009, 'min_100_150': 0.021, 'coef_var_150_200': 0.011, 'var_150_200': 0.01, 'max_175_225': 0.143, 'kurt_175_225': 0.115, 'min_175_225': 0.015, 'var_225_275': 0.011, 'mean_250_300': 0.013, 'max_250_300': 0.011, 'kurt_250_300': 0.05, 'skew_250_300': 0.023, 'coef_kstatvar_250_300': 0.014, 'mad_275_325': 0.033, 'std_class_275_325': 0.032, 'std_class_325_375': 0.008}</t>
         </is>
       </c>
     </row>
@@ -808,19 +808,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'max_depth': 72, 'max_features': 0.06328235767482196, 'min_samples_leaf': 0.010227099548299125, 'min_samples_split': 0.09061329833232991}</t>
+          <t>{'max_depth': 28, 'max_features': 0.4729305327364327, 'min_samples_leaf': 0.017131555950126207, 'min_samples_split': 0.10490154106300748}</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>{'entropy_10_25': 0.048, 'coef_var_10_25': 0.056, 'coef_var_10_50': 0.071, 'min_10_50': 0.065, 'var_10_50': 0.169, 'max_75_125': 0.197, 'min_100_150': 0.061, 'max_150_200': 0.085, 'coef_var_175_225': 0.054, 'std_class_175_225': 0.034, 'kurt_250_300': 0.051, 'kurt_275_325': 0.057, 'kurt_300_350': 0.051}</t>
+          <t>{'mean_10_25': 0.317, 'var_10_25': 0.093, 'skew_50_100': 0.052, 'kurt_75_125': 0.163, 'mad_125_175': 0.011, 'kurt_250_300': 0.223, 'coef_var_250_300': 0.124, 'max_300_350': 0.018}</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'max_depth': 58, 'max_features': 0.283953825906011, 'min_samples_leaf': 0.0012521241544981442, 'min_samples_split': 0.03830689093891685}</t>
+          <t>{'max_depth': 52, 'max_features': 0.2848014120760269, 'min_samples_leaf': 0.001094851842001063, 'min_samples_split': 0.036851530260608154}</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
